--- a/output/fit_clients/fit_round_93.xlsx
+++ b/output/fit_clients/fit_round_93.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6673066302.215511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004356240762717158</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.744164751710427</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9410369566630067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.744164751710427</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5271029518.155813</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.003990729665644533</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.339213341898682</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9010453822650205</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.339213341898682</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6210576192.62934</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003998244729821412</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.506716410195188</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9308413145659904</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.506716410195188</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3256080228.732173</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003408305048958807</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8566778952881972</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.338383835421284</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8708389949208327</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.338383835421284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5481335728.116004</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002369037748781156</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8320357145311355</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.182264592569768</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8919025396483836</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.182264592569768</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8825928134.437891</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008838566864457537</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.451863138984852</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9195462307133984</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.451863138984852</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6632629360.853926</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002427094617095745</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.177094715839082</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9599162367018712</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.177094715839082</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6385482180.834044</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.00443355301456741</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.75725319748901</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8988884037934392</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.75725319748901</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4145555141.459552</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004763924567564417</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>21</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.28320064057493</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.924065789405607</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.28320064057493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5065219251.262699</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001256580809994532</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.257425838856141</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7825502147030777</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.257425838856141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8022712872.261177</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001460203022894097</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.64181352172064</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9713842029144318</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.64181352172064</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5525252718.783613</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003076389328925376</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.15166192554077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.231703329807635</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.013820058713741</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.231703329807635</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7203493506.720873</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002606203288577098</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.540414087745217</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8804187663253349</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.540414087745217</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>8046001934.813584</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005303874479181475</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.149807553622713</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9922542534539937</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.149807553622713</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7855028563.574483</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004746255428492013</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.859779510994625</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9164428898798486</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.859779510994625</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5894825350.19448</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003324988735613341</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.541601584509651</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9267969417914372</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.541601584509651</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6849330062.772332</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001159113213444505</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.574558054069692</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9146736378776124</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.574558054069692</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3578649857.271925</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002311155132223559</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>19</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9659574726923312</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.427654788530897</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.020448827543662</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.427654788530897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6226497794.522542</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001395559559088374</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.559561316230921</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8074290354920962</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.559561316230921</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7275714091.752507</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005472063324746981</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9121935820397333</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.648708933842389</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.9453557298094978</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.648708933842389</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6166216140.634583</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003685325879671191</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.416094198150503</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7928562224202572</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.416094198150503</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8907685186.06406</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001926609144650173</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.110097500746997</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8569540288447416</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.110097500746997</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8620307235.934101</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003376682652060776</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6398974402075303</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.656508180599799</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.8598502583184535</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.656508180599799</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7074918058.604408</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002652350085374663</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.85111532220858</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9318158801415821</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.85111532220858</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4391788324.976381</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00144548569723342</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>22</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.094989734516286</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8102031594870881</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.094989734516286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5740722823.56541</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003652056514884844</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>18</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971373</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.506931721149518</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9283326027442458</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.506931721149518</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7777087263.544543</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004851467929475928</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.729166301350077</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9105574568577676</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.729166301350077</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6047521337.303404</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.0011249360673141</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>17</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.654774033580575</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9661468187392775</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.654774033580575</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6949408798.446462</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003426336449373627</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>23</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8440902471231186</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090875</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.087773725147545</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8944039605976938</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.087773725147545</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6554224280.37651</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002470100845830819</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>20</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.438166427587768</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9546356399986211</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.438166427587768</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4338066699.948873</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001333276906418183</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>21</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.599383631968992</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9063251521128789</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.599383631968992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7882057775.385139</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003128930939104598</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>13</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278147</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.983288355357594</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8513460454589216</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-2.983288355357594</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6147124267.520031</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004006804198909715</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.629979109949148</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7438511640394505</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.629979109949148</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5311402450.354282</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.00240298219718853</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>17</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.543468807893628</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9220788480408026</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.543468807893628</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7879688708.859959</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002872206577191858</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380638</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.479485205490445</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.000918689414422</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.479485205490445</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4750000919.30729</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004262678730774459</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>21</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.485647525915248</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9959442081706438</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.485647525915248</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4636402096.480854</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.005251213294885812</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.467726857009034</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9054206862388415</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.467726857009034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5460421877.46409</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002037331596768189</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>15</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.9329686454752187</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.896859479620662</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9501505170583286</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.896859479620662</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6353022795.543997</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004022215976352972</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>20</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.555182903048402</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9631019447879152</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.555182903048402</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6786145088.208538</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001525554374806529</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.9202415921511926</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.811764428153699</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.010912791488228</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.811764428153699</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5095856226.350929</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003437251154817134</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.380663200684781</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9700271423774732</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.380663200684781</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6929091719.726234</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003644882061276098</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>18</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.602526420807411</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9095601138232673</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.602526420807411</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7780473112.821962</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001905615429751296</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.383505010056916</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9215386327033569</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.383505010056916</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>3837250791.910339</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001046964420383115</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.832358487149794</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9491930117540118</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.832358487149794</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8419453804.395413</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005291854148996888</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>21</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.337420761637074</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8017653157045844</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.337420761637074</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6157757956.200705</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002051713200459176</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.282030095129777</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8759185840760125</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.282030095129777</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6228870161.250735</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00310242703036079</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>13</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.9548324202740598</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.937231380092051</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.049426956954817</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-2.937231380092051</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4042322336.852016</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004095895240612922</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>22</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.395467046893183</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8576598365750613</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.395467046893183</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8599280151.549141</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002716055531946785</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.197816282613208</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.008078109152911</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.197816282613208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3912540619.724646</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005236652611116957</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656325</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.380067890175551</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.940393729288348</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.380067890175551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5582744712.446215</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002147761952846181</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.354174365909863</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8347486445681315</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.354174365909863</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5342769373.476007</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002803941142082995</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.379923399276176</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8987901552511827</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.379923399276176</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5457829529.818775</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004123765471452885</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>21</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.232317938630529</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8364533158594553</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.232317938630529</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6898932437.228621</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003663193944616971</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.355959878882308</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8953966643836894</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.355959878882308</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6059681846.820752</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002765333486267432</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.457255662723338</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.8923293808133815</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.457255662723338</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6527877526.405504</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004473415314716091</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>20</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.9106915094767305</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.322364394506962</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8840286711397751</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.322364394506962</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4609982537.329717</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.00268508102751693</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.273437729569135</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8298718118836119</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.273437729569135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7125824933.021906</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004434896328189063</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.383873385321706</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8774212093700641</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.383873385321706</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5681065983.536143</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002785973304513037</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>21</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8992402678137159</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.190372047726693</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8826167804436411</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.190372047726693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5909168653.540166</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004557267814768867</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>27</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6866847413175713</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.732761911206484</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8234514823426847</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.732761911206484</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4681213270.971695</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003613663049505362</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.002821235977978</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8598983635973422</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.002821235977978</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7072125967.740621</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005449066272265872</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>26</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.058878746337617</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5287436926083546</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.058878746337617</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4826536098.819938</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004100080950548651</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.581830056107727</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8853588952552132</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.581830056107727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7055323345.039244</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003863925483407785</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>25</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.4704603438000441</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.585149138045229</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.6646648568308072</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.585149138045229</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6957594870.980416</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003771807115914616</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>18</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.519177296222615</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8960721925772298</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.519177296222615</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6158180457.280766</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005598070116533246</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.790441287360903</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8741683354163178</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.790441287360903</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8957672775.954891</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002861841044249805</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>22</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6804766820118868</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.130105314953632</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6349810072136918</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.130105314953632</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4590557852.671638</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001012888885638434</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.072571069738424</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9791781513838729</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.072571069738424</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6663127986.172744</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002837290341985715</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.519055237666407</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8822567147270047</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.519055237666407</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3310487549.092949</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.004054285638695128</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.655467727989678</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7964176488847021</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.655467727989678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6637349807.542351</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.00230830520338745</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.479787795014599</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.041656611448733</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.479787795014599</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5481765587.06811</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009591157499867751</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.683742081354903</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9487613200489587</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.683742081354903</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5961675377.532999</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.005058200261774977</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>20</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.829022631073786</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.301026968125514</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8780266828629704</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.301026968125514</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8084999046.770585</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.00392374564498518</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>18</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.56598875612874</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8661280990069713</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.56598875612874</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6702800606.276622</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002440830677149338</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.454099494697246</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9166766305376284</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.454099494697246</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7577293872.624642</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.00589400406136653</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>12</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.039306947172583</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9843462025421839</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.039306947172583</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6688226354.67381</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003745759439904035</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>20</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9266095052398783</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.401534813202244</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9970480013705303</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.401534813202244</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6296230604.1359</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002350597540942025</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>16</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.545527018400803</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9365992958971217</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.545527018400803</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6608303452.053961</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003121227499945299</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.609520745342934</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9564429669456959</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.609520745342934</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7114782100.749032</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003311187381800235</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.05110499204076</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9732511663665687</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.05110499204076</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5604507766.988484</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004638925198830117</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.443982851414266</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8851381343205217</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.443982851414266</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8340852637.176303</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003110996036535485</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>24</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.104910330247455</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8206611003838042</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.104910330247455</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7692955292.653791</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005135720213852198</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>22</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.236603148869624</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9368280075005634</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.236603148869624</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5376088430.460878</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003160807757669777</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.203948466825242</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8992458364196378</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.203948466825242</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8370602329.84183</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002299671586034819</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.526976535497615</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9635272114454649</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.526976535497615</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4235777190.949076</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001229871910753984</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>26</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6741789850318206</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.081748283358726</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.8564657985223166</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.081748283358726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6654237350.119513</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005575279842451469</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.555765788961019</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8490849714104696</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.555765788961019</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7413706956.203095</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003373395394133651</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.896302910167657</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9554738350449067</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.896302910167657</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7189215904.062463</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002901755914504097</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.551818237189975</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9420009741962393</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.551818237189975</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7748729265.718263</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003829742939201815</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.756481192086976</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.812308737810812</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.756481192086976</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3650794883.450221</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003097971510420958</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.8653134288437135</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.775967528979479</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.096025984217706</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.775967528979479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6241294546.40769</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.00134219332336268</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.382152604514407</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9100104020283528</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.382152604514407</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5497759915.764707</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001355231499232991</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>15</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.755111899868727</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.9987817318179018</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.755111899868727</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6248544569.536186</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002961416456193973</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>15</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.636368635562999</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.915004348453399</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.636368635562999</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6649705003.374843</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003091341712655979</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>24</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.225635484669967</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9075621397436182</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.225635484669967</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6305833740.193666</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.00385957870959955</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>17</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.690673438242464</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8850171069234585</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.690673438242464</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8161350835.026759</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003469995534088052</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.366240370617968</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8558722498064593</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.366240370617968</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3437577689.698141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005034983884403603</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>22</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.311979076456746</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8833061814825883</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.311979076456746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4770135109.572655</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002698320898230985</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7900786552195832</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.554179758516639</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8223721017299455</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.554179758516639</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6661555955.31501</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001736067465732524</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>21</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480225</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.596986250957941</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.011241169918351</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.596986250957941</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_93.xlsx
+++ b/output/fit_clients/fit_round_93.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6673066302.215511</v>
+        <v>1765492881.765494</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004356240762717158</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>23</v>
+        <v>0.112992066752372</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03468595511963133</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>882746404.9051208</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2428198359.847489</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.122281047332733</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03508202651143317</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5271029518.155813</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.003990729665644533</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>23</v>
+      <c r="J3" t="n">
+        <v>1214099286.219199</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6210576192.62934</v>
+        <v>4617492739.253371</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003998244729821412</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
+        <v>0.1141893920193944</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03408674393646924</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>34</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2308746427.478891</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3256080228.732173</v>
+        <v>2762510166.099771</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003408305048958807</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08449769226067272</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0337128988822625</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1381255168.551467</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5481335728.116004</v>
+        <v>2564003753.826252</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002369037748781156</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20</v>
+        <v>0.1317683072604746</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04380306507157718</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1282001845.386769</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>494</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2873616600.156627</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07918006113294009</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0471829336622086</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>539</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8825928134.437891</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0008838566864457537</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>29</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1436808277.059093</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6632629360.853926</v>
+        <v>3109640518.020617</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002427094617095745</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>24</v>
+        <v>0.1532800979538938</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0232746083056867</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1554820327.663472</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6385482180.834044</v>
+        <v>1907460653.209707</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00443355301456741</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>29</v>
+        <v>0.1217825897528345</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02837601432316781</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>953730365.9867851</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4145555141.459552</v>
+        <v>4104307646.971366</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004763924567564417</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2019853367690971</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05181041476056229</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2052153853.384489</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>5065219251.262699</v>
+        <v>4016842288.623032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001256580809994532</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.125448125678548</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04240620433651666</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>39</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2008421158.137532</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8022712872.261177</v>
+        <v>2784340783.241076</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001460203022894097</v>
-      </c>
-      <c r="G12" t="b">
+        <v>0.1523203158354202</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04766528655961558</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>26</v>
+      <c r="I12" t="n">
+        <v>33</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1392170389.820929</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5525252718.783613</v>
+        <v>4752530025.785257</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003076389328925376</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>19</v>
+        <v>0.07023314360103083</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02809681144612304</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2376265029.530105</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7203493506.720873</v>
+        <v>3695807063.054813</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002606203288577098</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>21</v>
+        <v>0.1224777382971225</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03859019438163557</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1847903515.516457</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>8046001934.813584</v>
+        <v>1786706067.713044</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005303874479181475</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28</v>
+        <v>0.0657720801714981</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03858339035492058</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>893353184.2733084</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7855028563.574483</v>
+        <v>2141849143.566588</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004746255428492013</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>30</v>
+        <v>0.07051336832486424</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03383203620498834</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1070924634.52391</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5894825350.19448</v>
+        <v>4023491065.903682</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003324988735613341</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>19</v>
+        <v>0.1391715602189761</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05119227042937909</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>27</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2011745566.342387</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6849330062.772332</v>
+        <v>2510503689.51615</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001159113213444505</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>26</v>
+        <v>0.1470236567606478</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02749637440950621</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1255251910.418103</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3578649857.271925</v>
+        <v>1133717764.394644</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002311155132223559</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1750777224849213</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02520485449319892</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>566858943.9030299</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6226497794.522542</v>
+        <v>2560128439.719493</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001395559559088374</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1217976273143584</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02684674543261637</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1280064186.461241</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7275714091.752507</v>
+        <v>2649079663.123212</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005472063324746981</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>17</v>
+        <v>0.07359860657913218</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04077993084691474</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1324539805.381612</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2912571317.932953</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1448934324650418</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03858298881643974</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>441</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6166216140.634583</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.003685325879671191</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+      <c r="I22" t="n">
+        <v>26</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1456285725.661898</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8907685186.06406</v>
+        <v>1440820069.860285</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001926609144650173</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>17</v>
+        <v>0.1305471533249401</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05346796027088613</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>720410030.7696606</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8620307235.934101</v>
+        <v>3305445778.371414</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003376682652060776</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>24</v>
+        <v>0.1047438852561789</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02356622076514319</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1652722903.818114</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7074918058.604408</v>
+        <v>1067820695.420918</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002652350085374663</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>20</v>
+        <v>0.08530903524272428</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02153836392518687</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>533910396.0177068</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4391788324.976381</v>
+        <v>1010697149.130955</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00144548569723342</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09938848226231574</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03081238382085966</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>505348549.2251885</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5740722823.56541</v>
+        <v>4677690012.95271</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003652056514884844</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>27</v>
+        <v>0.153379316732609</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01847791430793145</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2338844982.871589</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7777087263.544543</v>
+        <v>2524354461.10794</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004851467929475928</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>23</v>
+        <v>0.1078620289962782</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03123591518232826</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1262177200.407503</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6047521337.303404</v>
+        <v>5553669542.513488</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0011249360673141</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>23</v>
+        <v>0.1074474621238271</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03793776499253718</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>44</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2776834680.35363</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6949408798.446462</v>
+        <v>2009051585.578103</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003426336449373627</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>29</v>
+        <v>0.1042779444867728</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03306089414742637</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1004525831.239525</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6554224280.37651</v>
+        <v>1498209962.837755</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002470100845830819</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>19</v>
+        <v>0.1020026140487961</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03272739065108449</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>749104862.6239817</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4338066699.948873</v>
+        <v>1664745789.026509</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001333276906418183</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09508427659384457</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02868366339248373</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>832372996.9221406</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7882057775.385139</v>
+        <v>2678423581.695369</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003128930939104598</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>20</v>
+        <v>0.1541823257280964</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0480813539602493</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>26</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1339211813.781029</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6147124267.520031</v>
+        <v>1556371879.322887</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004006804198909715</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>29</v>
+        <v>0.1176111599077002</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02064467053563951</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>778185886.1812421</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5311402450.354282</v>
+        <v>842921726.0297778</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00240298219718853</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>24</v>
+        <v>0.07391429109069619</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03439416346636012</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>421460915.9666387</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7879688708.859959</v>
+        <v>2949721942.144044</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002872206577191858</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>26</v>
+        <v>0.129296347378426</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02197181068031473</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1474860956.941964</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4750000919.30729</v>
+        <v>2349950647.049369</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004262678730774459</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>24</v>
+        <v>0.09655858662764116</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03949379923977422</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1174975398.892009</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4636402096.480854</v>
+        <v>2032860956.339851</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005251213294885812</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.07427046131972348</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02606942441124212</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1016430452.085664</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5460421877.46409</v>
+        <v>2106817585.659333</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002037331596768189</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1851113698439089</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0281421744948925</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1053408771.059117</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6353022795.543997</v>
+        <v>1384202261.19383</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004022215976352972</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.126512849430165</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04816559193860626</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>692101125.6805576</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6786145088.208538</v>
+        <v>2211093461.927614</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001525554374806529</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>27</v>
+        <v>0.1355179584089115</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04564942335229753</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1105546784.420646</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5095856226.350929</v>
+        <v>3394334347.40576</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003437251154817134</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>22</v>
+        <v>0.1033717238585342</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03920060471984939</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1697167161.206603</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6929091719.726234</v>
+        <v>2169896348.236485</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003644882061276098</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>21</v>
+        <v>0.1686367946720503</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01720961124431166</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1084948255.908123</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7780473112.821962</v>
+        <v>2063184933.266946</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001905615429751296</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>24</v>
+        <v>0.08560692926101234</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02312315811953944</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1031592585.510629</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>3837250791.910339</v>
+        <v>1692482537.707953</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001046964420383115</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.147916240681179</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03637038120641244</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>846241228.6668352</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8419453804.395413</v>
+        <v>5034304660.527113</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005291854148996888</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>15</v>
+        <v>0.1282714265517068</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05388832451111552</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>33</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2517152358.938508</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6157757956.200705</v>
+        <v>5107584756.548493</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002051713200459176</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1253503496356898</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04352524093279506</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2553792440.071693</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6228870161.250735</v>
+        <v>3931590000.94571</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00310242703036079</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>16</v>
+        <v>0.08848670258345426</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02383879790530712</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1965795038.73554</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4042322336.852016</v>
+        <v>1618774693.917943</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004095895240612922</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1866143852639979</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0354649918334953</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>809387360.44696</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8599280151.549141</v>
+        <v>2819006576.65127</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002716055531946785</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>25</v>
+        <v>0.166754645101617</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05213680086181358</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>32</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1409503360.955034</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3912540619.724646</v>
+        <v>1005128804.909334</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005236652611116957</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1565701777479752</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04331426820898344</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>502564485.5133674</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5582744712.446215</v>
+        <v>5176915493.706724</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002147761952846181</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>23</v>
+        <v>0.08960281099599922</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05135793184947914</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>38</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2588457733.989261</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5342769373.476007</v>
+        <v>3586957110.899551</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002803941142082995</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>18</v>
+        <v>0.1555344592679356</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02237379088968821</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>27</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1793478547.276371</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5457829529.818775</v>
+        <v>3543818188.954885</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004123765471452885</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>23</v>
+        <v>0.125466868250386</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03741138805208811</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>30</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1771909122.677026</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6898932437.228621</v>
+        <v>3434884280.865604</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003663193944616971</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>30</v>
+        <v>0.1416545865331207</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02438604308118784</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1717442090.323104</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6059681846.820752</v>
+        <v>1590436102.053797</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002765333486267432</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1205058741582607</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05011907987247553</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>795218079.7817478</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6527877526.405504</v>
+        <v>3953677783.064603</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004473415314716091</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1363756131007636</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02685418266562597</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1976838975.928869</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4609982537.329717</v>
+        <v>1436202058.63881</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00268508102751693</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>21</v>
+        <v>0.1244435845830665</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03792377610634855</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>718101066.2013651</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7125824933.021906</v>
+        <v>4280435758.862583</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004434896328189063</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.09075407366146181</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03507842148102316</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2140217841.792288</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5681065983.536143</v>
+        <v>2437598724.38091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002785973304513037</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1413843042928604</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03114711885477025</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1218799373.486467</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5909168653.540166</v>
+        <v>2954042602.202433</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004557267814768867</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
+        <v>0.178586115857224</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02511049714656534</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>32</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1477021285.831857</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4681213270.971695</v>
+        <v>1420415035.468531</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003613663049505362</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>16</v>
+        <v>0.17719484578115</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0369093688663067</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>710207488.7750249</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7072125967.740621</v>
+        <v>4346944843.01868</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005449066272265872</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.1069450308708467</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04483097145027064</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2173472468.332965</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4826536098.819938</v>
+        <v>3367083020.3835</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004100080950548651</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1644533078643494</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03319992759625209</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>29</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1683541501.446428</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7055323345.039244</v>
+        <v>5552185681.608333</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003863925483407785</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>23</v>
+        <v>0.1247619877187257</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02900963114221485</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>34</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2776092766.692179</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6957594870.980416</v>
+        <v>5280279019.219192</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003771807115914616</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>20</v>
+        <v>0.1187862799453829</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03683182333937515</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>27</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2640139551.734997</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6158180457.280766</v>
+        <v>3041006007.754989</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005598070116533246</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19</v>
+        <v>0.09775642940329821</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0495563707782373</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>30</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1520503018.622113</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8957672775.954891</v>
+        <v>3960605263.331403</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002861841044249805</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>19</v>
+        <v>0.105509963471953</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0475668469878337</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>30</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1980302625.00009</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4590557852.671638</v>
+        <v>2150635180.580476</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001012888885638434</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1239549181116501</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03907813958149649</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1075317614.630691</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6663127986.172744</v>
+        <v>2437307925.90133</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002837290341985715</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.09431540336719234</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04192272695004935</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1218653903.307425</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3310487549.092949</v>
+        <v>4477602051.710548</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004054285638695128</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1210658649403646</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02262952475550709</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>34</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2238801092.477283</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6637349807.542351</v>
+        <v>1552192088.297311</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00230830520338745</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.06802912551682087</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03988828763549286</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>776096062.6222813</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5481765587.06811</v>
+        <v>3374816477.243093</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009591157499867751</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>23</v>
+        <v>0.09260934266574955</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04202476142538893</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>35</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1687408200.201956</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5961675377.532999</v>
+        <v>3350682861.589329</v>
       </c>
       <c r="F74" t="n">
-        <v>0.005058200261774977</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>22</v>
+        <v>0.1760108068079089</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0217943531175388</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>31</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1675341465.828287</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8084999046.770585</v>
+        <v>1830741117.578217</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00392374564498518</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>17</v>
+        <v>0.1362765237265361</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03587214350595637</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>915370538.7328107</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6702800606.276622</v>
+        <v>5365006218.614997</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002440830677149338</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>19</v>
+        <v>0.109568110201071</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03210772621219637</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>20</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2682503151.223984</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7577293872.624642</v>
+        <v>2039474998.678066</v>
       </c>
       <c r="F77" t="n">
-        <v>0.00589400406136653</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>31</v>
+        <v>0.164263032120864</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02105347016810194</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1019737566.613671</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6688226354.67381</v>
+        <v>3196599476.776104</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003745759439904035</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1364056404937723</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05533756217832923</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>34</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1598299761.564954</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6296230604.1359</v>
+        <v>1788086790.141072</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002350597540942025</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>21</v>
+        <v>0.1345868354827487</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03734851317329696</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>894043479.5921359</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6608303452.053961</v>
+        <v>3542638262.681814</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003121227499945299</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>31</v>
+        <v>0.07823267156319567</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03513030972912664</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>19</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1771319107.997157</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7114782100.749032</v>
+        <v>4119512894.588331</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003311187381800235</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.1113479329077355</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02771179160797803</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2059756414.829467</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5604507766.988484</v>
+        <v>4143693029.782662</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004638925198830117</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1931369636078762</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02011496883655003</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2071846546.583196</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8340852637.176303</v>
+        <v>1969303348.460826</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003110996036535485</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>28</v>
+        <v>0.1133522805909096</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04123914808832609</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>984651655.6809316</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7692955292.653791</v>
+        <v>2275415614.022842</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005135720213852198</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>25</v>
+        <v>0.106024580440268</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03872587489394881</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1137707771.6034</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5376088430.460878</v>
+        <v>3236939207.931207</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003160807757669777</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.143666952067632</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05549388025642977</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>35</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1618469690.195952</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8370602329.84183</v>
+        <v>1924819623.567837</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002299671586034819</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>29</v>
+        <v>0.1118521792882407</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0222113875493608</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>962409828.8788823</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4235777190.949076</v>
+        <v>1167876470.218839</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001229871910753984</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1660083191623731</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02829631658882564</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>583938282.3793914</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6654237350.119513</v>
+        <v>3628386986.483283</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005575279842451469</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1562636816452123</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02792034133260276</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>37</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1814193585.693071</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>513</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3268099490.852554</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1045038236260199</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.04056299787138649</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="D89" t="n">
-        <v>473</v>
-      </c>
-      <c r="E89" t="n">
-        <v>7413706956.203095</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.003373395394133651</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>20</v>
+      <c r="I89" t="n">
+        <v>31</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1634049763.807915</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7189215904.062463</v>
+        <v>1832818951.275432</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002901755914504097</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>17</v>
+        <v>0.1304624237097186</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03780441387930204</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>916409515.2126648</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7748729265.718263</v>
+        <v>1466285019.000049</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003829742939201815</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>27</v>
+        <v>0.1350485965677048</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0511995222260968</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>733142552.8413668</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3650794883.450221</v>
+        <v>2455556293.957631</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003097971510420958</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09899963538214568</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03202196645149821</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1227778127.499448</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6241294546.40769</v>
+        <v>3185145598.668612</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00134219332336268</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>31</v>
+        <v>0.1348414313103884</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04345962535954934</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>28</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1592572852.565712</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5497759915.764707</v>
+        <v>2271901476.81048</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001355231499232991</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>30</v>
+        <v>0.1106263067368753</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04097792434349954</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1135950772.126637</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6248544569.536186</v>
+        <v>2314014977.117243</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002961416456193973</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>24</v>
+        <v>0.1196088820241004</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04358701549141244</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>22</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1157007538.09517</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6649705003.374843</v>
+        <v>2048415960.331128</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003091341712655979</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>25</v>
+        <v>0.08549947866678666</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04180533435227331</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1024207961.90049</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6305833740.193666</v>
+        <v>4662269868.618645</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00385957870959955</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>24</v>
+        <v>0.14890241939646</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02791514633022722</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>30</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2331135043.877986</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8161350835.026759</v>
+        <v>2852084835.809057</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003469995534088052</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>35</v>
+        <v>0.115827363268975</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02124775465184431</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>24</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1426042392.496427</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3437577689.698141</v>
+        <v>2365993952.639473</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005034983884403603</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1183102046382049</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02651828975472724</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>29</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1182996916.255529</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4770135109.572655</v>
+        <v>2965892756.066269</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002698320898230985</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1595941227538487</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01885343613843248</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>28</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1482946366.075796</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6661555955.31501</v>
+        <v>2764984989.525297</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001736067465732524</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>30</v>
+        <v>0.1840991258240205</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0478561273325822</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>40</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1382492552.676249</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_93.xlsx
+++ b/output/fit_clients/fit_round_93.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1765492881.765494</v>
+        <v>2480207941.635708</v>
       </c>
       <c r="F2" t="n">
-        <v>0.112992066752372</v>
+        <v>0.08682202944670528</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03468595511963133</v>
+        <v>0.03533918549435214</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>882746404.9051208</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2428198359.847489</v>
+        <v>1717643487.368113</v>
       </c>
       <c r="F3" t="n">
-        <v>0.122281047332733</v>
+        <v>0.1429243353438097</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03508202651143317</v>
+        <v>0.04265069751275178</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1214099286.219199</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4617492739.253371</v>
+        <v>4841610515.90169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1141893920193944</v>
+        <v>0.10840780616299</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03408674393646924</v>
+        <v>0.02568451118726728</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2308746427.478891</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2762510166.099771</v>
+        <v>3441506388.590514</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08449769226067272</v>
+        <v>0.09168857593773823</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0337128988822625</v>
+        <v>0.04429353037518868</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1381255168.551467</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2564003753.826252</v>
+        <v>2828637147.767153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1317683072604746</v>
+        <v>0.1105243633753816</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04380306507157718</v>
+        <v>0.04309769935961374</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1282001845.386769</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2873616600.156627</v>
+        <v>2067950390.263663</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07918006113294009</v>
+        <v>0.08409688647332796</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0471829336622086</v>
+        <v>0.03620837037923662</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>29</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1436808277.059093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3109640518.020617</v>
+        <v>3126008304.651796</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1532800979538938</v>
+        <v>0.1894437956426466</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0232746083056867</v>
+        <v>0.03177400205213714</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>31</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1554820327.663472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1907460653.209707</v>
+        <v>1801215558.802887</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1217825897528345</v>
+        <v>0.1208545947899236</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02837601432316781</v>
+        <v>0.02583293010466871</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>953730365.9867851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4104307646.971366</v>
+        <v>4270856703.052756</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2019853367690971</v>
+        <v>0.2108145169335615</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05181041476056229</v>
+        <v>0.03286476804186177</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>40</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2052153853.384489</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4016842288.623032</v>
+        <v>3598756990.465847</v>
       </c>
       <c r="F11" t="n">
-        <v>0.125448125678548</v>
+        <v>0.1602342805376495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04240620433651666</v>
+        <v>0.0319535695587122</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>39</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2008421158.137532</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2784340783.241076</v>
+        <v>3272542950.153812</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1523203158354202</v>
+        <v>0.178298540107982</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04766528655961558</v>
+        <v>0.03618723160512619</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>33</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1392170389.820929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4752530025.785257</v>
+        <v>3291798225.868009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07023314360103083</v>
+        <v>0.07796070317028915</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02809681144612304</v>
+        <v>0.02585121749239199</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>31</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2376265029.530105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3695807063.054813</v>
+        <v>3620009106.696224</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1224777382971225</v>
+        <v>0.1374733463919227</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03859019438163557</v>
+        <v>0.03338635735805745</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>30</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1847903515.516457</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1786706067.713044</v>
+        <v>1754557556.878012</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0657720801714981</v>
+        <v>0.07392307070763948</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03858339035492058</v>
+        <v>0.04160700156631449</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>893353184.2733084</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2141849143.566588</v>
+        <v>2390877183.265606</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07051336832486424</v>
+        <v>0.1110347901434551</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03383203620498834</v>
+        <v>0.04330471855591755</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1070924634.52391</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4023491065.903682</v>
+        <v>4494137827.724488</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1391715602189761</v>
+        <v>0.1284413009465513</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05119227042937909</v>
+        <v>0.03824615642123304</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2011745566.342387</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2510503689.51615</v>
+        <v>2862654872.215697</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1470236567606478</v>
+        <v>0.1415882402326249</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02749637440950621</v>
+        <v>0.02856825774939819</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>30</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1255251910.418103</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1133717764.394644</v>
+        <v>1252835954.765697</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1750777224849213</v>
+        <v>0.1313420801869226</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02520485449319892</v>
+        <v>0.02259656954653278</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>566858943.9030299</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2560128439.719493</v>
+        <v>1819660457.239024</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1217976273143584</v>
+        <v>0.1565929423522185</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02684674543261637</v>
+        <v>0.02621141735832559</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1280064186.461241</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2649079663.123212</v>
+        <v>1667314138.602127</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07359860657913218</v>
+        <v>0.09087057323503128</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04077993084691474</v>
+        <v>0.03843480331336673</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1324539805.381612</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2912571317.932953</v>
+        <v>3508023872.18542</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1448934324650418</v>
+        <v>0.1108604364029617</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03858298881643974</v>
+        <v>0.04477264183624417</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>26</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1456285725.661898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1440820069.860285</v>
+        <v>1131505466.951538</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1305471533249401</v>
+        <v>0.1384834164959512</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05346796027088613</v>
+        <v>0.04703144806269034</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>720410030.7696606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3305445778.371414</v>
+        <v>2582873110.79195</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1047438852561789</v>
+        <v>0.1193300438768673</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02356622076514319</v>
+        <v>0.02383590807893484</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>27</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1652722903.818114</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1067820695.420918</v>
+        <v>1251113650.716345</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08530903524272428</v>
+        <v>0.08600504360060983</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02153836392518687</v>
+        <v>0.02974004286417714</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>533910396.0177068</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1010697149.130955</v>
+        <v>878907360.9693333</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09938848226231574</v>
+        <v>0.121177191278372</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03081238382085966</v>
+        <v>0.0272501457348386</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>505348549.2251885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4677690012.95271</v>
+        <v>3316564635.432888</v>
       </c>
       <c r="F27" t="n">
-        <v>0.153379316732609</v>
+        <v>0.1159056160662624</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01847791430793145</v>
+        <v>0.02103134063385357</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2338844982.871589</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2524354461.10794</v>
+        <v>3104789650.255515</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1078620289962782</v>
+        <v>0.1219364100969708</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03123591518232826</v>
+        <v>0.0422005247027473</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>30</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1262177200.407503</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5553669542.513488</v>
+        <v>4793957324.725755</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1074474621238271</v>
+        <v>0.1415358171532026</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03793776499253718</v>
+        <v>0.03045443338939416</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>44</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2776834680.35363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2009051585.578103</v>
+        <v>2026579026.557632</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1042779444867728</v>
+        <v>0.1105375142554723</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03306089414742637</v>
+        <v>0.02774806896711575</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1004525831.239525</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1498209962.837755</v>
+        <v>1315641030.054272</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1020026140487961</v>
+        <v>0.07647350030085949</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03272739065108449</v>
+        <v>0.04667001867916584</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>749104862.6239817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1664745789.026509</v>
+        <v>1453422907.966477</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09508427659384457</v>
+        <v>0.09289603836966841</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02868366339248373</v>
+        <v>0.03386979351794369</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>832372996.9221406</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2678423581.695369</v>
+        <v>1969505961.192535</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1541823257280964</v>
+        <v>0.1378731090117546</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0480813539602493</v>
+        <v>0.03905207006380859</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>26</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1339211813.781029</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1556371879.322887</v>
+        <v>1269975870.208304</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1176111599077002</v>
+        <v>0.08886768293883124</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02064467053563951</v>
+        <v>0.01903279895962583</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>778185886.1812421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>842921726.0297778</v>
+        <v>919470097.2605093</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07391429109069619</v>
+        <v>0.09867390339765915</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03439416346636012</v>
+        <v>0.04372750277999848</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>421460915.9666387</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2949721942.144044</v>
+        <v>2053645337.231137</v>
       </c>
       <c r="F36" t="n">
-        <v>0.129296347378426</v>
+        <v>0.1381633602806884</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02197181068031473</v>
+        <v>0.01900563755563829</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>24</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1474860956.941964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2349950647.049369</v>
+        <v>2483779235.165207</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09655858662764116</v>
+        <v>0.08148758413461059</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03949379923977422</v>
+        <v>0.03033387137275901</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1174975398.892009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2032860956.339851</v>
+        <v>1399156192.819644</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07427046131972348</v>
+        <v>0.09458352505688429</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02606942441124212</v>
+        <v>0.03822078796866079</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1016430452.085664</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2106817585.659333</v>
+        <v>1425702591.421466</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1851113698439089</v>
+        <v>0.1880588445764669</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0281421744948925</v>
+        <v>0.03107703230371522</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1053408771.059117</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1384202261.19383</v>
+        <v>1710652138.926817</v>
       </c>
       <c r="F40" t="n">
-        <v>0.126512849430165</v>
+        <v>0.1347795537311534</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04816559193860626</v>
+        <v>0.0594152938493286</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>692101125.6805576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2211093461.927614</v>
+        <v>2114936437.35868</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1355179584089115</v>
+        <v>0.1422566132438648</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04564942335229753</v>
+        <v>0.04324066892988129</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1105546784.420646</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3394334347.40576</v>
+        <v>4104901894.577888</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1033717238585342</v>
+        <v>0.08644986817773954</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03920060471984939</v>
+        <v>0.03580359947277128</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>32</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1697167161.206603</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2169896348.236485</v>
+        <v>2358010040.543531</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1686367946720503</v>
+        <v>0.1899234113718961</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01720961124431166</v>
+        <v>0.0191241562994799</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1084948255.908123</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2063184933.266946</v>
+        <v>2244421766.189969</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08560692926101234</v>
+        <v>0.06676872922676615</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02312315811953944</v>
+        <v>0.03421410941128484</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1031592585.510629</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1692482537.707953</v>
+        <v>1865147424.131666</v>
       </c>
       <c r="F45" t="n">
-        <v>0.147916240681179</v>
+        <v>0.1263127784988184</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03637038120641244</v>
+        <v>0.03515159099463819</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>846241228.6668352</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5034304660.527113</v>
+        <v>3973788899.34299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1282714265517068</v>
+        <v>0.1607602631523524</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05388832451111552</v>
+        <v>0.05606720554689933</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>33</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2517152358.938508</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5107584756.548493</v>
+        <v>4428786835.34389</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1253503496356898</v>
+        <v>0.1498424758218104</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04352524093279506</v>
+        <v>0.04834671268905428</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>25</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2553792440.071693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3931590000.94571</v>
+        <v>4148883026.155961</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08848670258345426</v>
+        <v>0.101785917650907</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02383879790530712</v>
+        <v>0.0275967362915729</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1965795038.73554</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1618774693.917943</v>
+        <v>1535422504.792908</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1866143852639979</v>
+        <v>0.1480609833298326</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0354649918334953</v>
+        <v>0.03723159871950375</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>809387360.44696</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2819006576.65127</v>
+        <v>3035702273.436749</v>
       </c>
       <c r="F50" t="n">
-        <v>0.166754645101617</v>
+        <v>0.1673274986931936</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05213680086181358</v>
+        <v>0.0502755367631569</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>32</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1409503360.955034</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1005128804.909334</v>
+        <v>1274281370.421756</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1565701777479752</v>
+        <v>0.1271424428714996</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04331426820898344</v>
+        <v>0.03642788819311626</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>502564485.5133674</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5176915493.706724</v>
+        <v>4420602551.51258</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08960281099599922</v>
+        <v>0.1186124155379386</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05135793184947914</v>
+        <v>0.05915645784428191</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>38</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2588457733.989261</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3586957110.899551</v>
+        <v>3214927053.393784</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1555344592679356</v>
+        <v>0.1394652037070414</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02237379088968821</v>
+        <v>0.03200740591398576</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>27</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1793478547.276371</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3543818188.954885</v>
+        <v>3901711147.035579</v>
       </c>
       <c r="F54" t="n">
-        <v>0.125466868250386</v>
+        <v>0.1508040521310135</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03741138805208811</v>
+        <v>0.04309165457378361</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>30</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1771909122.677026</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3434884280.865604</v>
+        <v>3096191079.422709</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1416545865331207</v>
+        <v>0.1467373671012313</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02438604308118784</v>
+        <v>0.03119313369698266</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1717442090.323104</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1590436102.053797</v>
+        <v>1277042606.168557</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1205058741582607</v>
+        <v>0.1155176014503327</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05011907987247553</v>
+        <v>0.05410407153018325</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>795218079.7817478</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3953677783.064603</v>
+        <v>2877109011.96302</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1363756131007636</v>
+        <v>0.1607161974614883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02685418266562597</v>
+        <v>0.02003752403631111</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>30</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1976838975.928869</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1436202058.63881</v>
+        <v>1847507621.536048</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1244435845830665</v>
+        <v>0.1846432991216989</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03792377610634855</v>
+        <v>0.02595634822443217</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>718101066.2013651</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4280435758.862583</v>
+        <v>3413074290.428753</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09075407366146181</v>
+        <v>0.09408281986431688</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03507842148102316</v>
+        <v>0.03094693112712251</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2140217841.792288</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2437598724.38091</v>
+        <v>3394542576.714659</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1413843042928604</v>
+        <v>0.1728250278614116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03114711885477025</v>
+        <v>0.02495987108906991</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>29</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1218799373.486467</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2954042602.202433</v>
+        <v>3079947922.634259</v>
       </c>
       <c r="F61" t="n">
-        <v>0.178586115857224</v>
+        <v>0.1757120285810011</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02511049714656534</v>
+        <v>0.03030170902836018</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>32</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1477021285.831857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1420415035.468531</v>
+        <v>2039586223.933979</v>
       </c>
       <c r="F62" t="n">
-        <v>0.17719484578115</v>
+        <v>0.1567444286927959</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0369093688663067</v>
+        <v>0.03108767335178516</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>710207488.7750249</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4346944843.01868</v>
+        <v>4187121027.050332</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1069450308708467</v>
+        <v>0.07376986215761724</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04483097145027064</v>
+        <v>0.03218423298112389</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>26</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2173472468.332965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3367083020.3835</v>
+        <v>4947120391.74988</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1644533078643494</v>
+        <v>0.1445556207230095</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03319992759625209</v>
+        <v>0.02848947654293637</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>29</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1683541501.446428</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5552185681.608333</v>
+        <v>3734845521.958188</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1247619877187257</v>
+        <v>0.1200022762235729</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02900963114221485</v>
+        <v>0.02838045074743246</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>34</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2776092766.692179</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5280279019.219192</v>
+        <v>3608446150.257668</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1187862799453829</v>
+        <v>0.1455365346448715</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03683182333937515</v>
+        <v>0.0479167577951602</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>27</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2640139551.734997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3041006007.754989</v>
+        <v>3214536421.045988</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09775642940329821</v>
+        <v>0.09239599959790615</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0495563707782373</v>
+        <v>0.05061211975926412</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>30</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1520503018.622113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3960605263.331403</v>
+        <v>5138631092.985925</v>
       </c>
       <c r="F68" t="n">
-        <v>0.105509963471953</v>
+        <v>0.1444547833817096</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0475668469878337</v>
+        <v>0.04638079736967535</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>30</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1980302625.00009</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2150635180.580476</v>
+        <v>1703573758.562237</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1239549181116501</v>
+        <v>0.1483536571778675</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03907813958149649</v>
+        <v>0.04163558522685062</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1075317614.630691</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2437307925.90133</v>
+        <v>2836830140.983472</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09431540336719234</v>
+        <v>0.0642518476833749</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04192272695004935</v>
+        <v>0.03136834433537136</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1218653903.307425</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4477602051.710548</v>
+        <v>4609271125.487455</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1210658649403646</v>
+        <v>0.1344578179735448</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02262952475550709</v>
+        <v>0.0313717388741689</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>34</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2238801092.477283</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1552192088.297311</v>
+        <v>2026976176.597016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06802912551682087</v>
+        <v>0.08021188590596572</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03988828763549286</v>
+        <v>0.03883363108710143</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>776096062.6222813</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3374816477.243093</v>
+        <v>2973423436.733631</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09260934266574955</v>
+        <v>0.07664488768502238</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04202476142538893</v>
+        <v>0.0319657775950355</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>35</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1687408200.201956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3350682861.589329</v>
+        <v>3855343326.940174</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1760108068079089</v>
+        <v>0.1742033268755502</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0217943531175388</v>
+        <v>0.02687152029009996</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>31</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1675341465.828287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1830741117.578217</v>
+        <v>2063970268.000244</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1362765237265361</v>
+        <v>0.1189908772301763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03587214350595637</v>
+        <v>0.03800660144458102</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>915370538.7328107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5365006218.614997</v>
+        <v>3757042436.237823</v>
       </c>
       <c r="F76" t="n">
-        <v>0.109568110201071</v>
+        <v>0.1027622625849968</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03210772621219637</v>
+        <v>0.02725299836848553</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2682503151.223984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2039474998.678066</v>
+        <v>1796389999.483477</v>
       </c>
       <c r="F77" t="n">
-        <v>0.164263032120864</v>
+        <v>0.1282884423144885</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02105347016810194</v>
+        <v>0.02573069093050506</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1019737566.613671</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3196599476.776104</v>
+        <v>3977894236.09055</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1364056404937723</v>
+        <v>0.1370105248393708</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05533756217832923</v>
+        <v>0.03781638948726812</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>34</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1598299761.564954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1788086790.141072</v>
+        <v>1470377172.799934</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1345868354827487</v>
+        <v>0.1420727694165337</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03734851317329696</v>
+        <v>0.02657886503427615</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>894043479.5921359</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3542638262.681814</v>
+        <v>4170948477.999815</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07823267156319567</v>
+        <v>0.0853255529513896</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03513030972912664</v>
+        <v>0.02679397804648902</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>19</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1771319107.997157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4119512894.588331</v>
+        <v>4343782178.417478</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1113479329077355</v>
+        <v>0.126517642486859</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02771179160797803</v>
+        <v>0.02179701167892332</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2059756414.829467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4143693029.782662</v>
+        <v>5247492384.534289</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1931369636078762</v>
+        <v>0.1957979588819414</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02011496883655003</v>
+        <v>0.02479135440068415</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2071846546.583196</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1969303348.460826</v>
+        <v>2025410282.264656</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1133522805909096</v>
+        <v>0.1295645814712109</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04123914808832609</v>
+        <v>0.04005081123992079</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>984651655.6809316</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2275415614.022842</v>
+        <v>2224222669.736608</v>
       </c>
       <c r="F84" t="n">
-        <v>0.106024580440268</v>
+        <v>0.08898976649004402</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03872587489394881</v>
+        <v>0.04030446843484514</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1137707771.6034</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3236939207.931207</v>
+        <v>2893980011.21873</v>
       </c>
       <c r="F85" t="n">
-        <v>0.143666952067632</v>
+        <v>0.1782983193396821</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05549388025642977</v>
+        <v>0.03533871754220531</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>35</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1618469690.195952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1924819623.567837</v>
+        <v>2289489916.94537</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1118521792882407</v>
+        <v>0.1290939389900242</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0222113875493608</v>
+        <v>0.02610997405594483</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>962409828.8788823</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1167876470.218839</v>
+        <v>1195940147.962337</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1660083191623731</v>
+        <v>0.1366664819099914</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02829631658882564</v>
+        <v>0.03539453710989778</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>583938282.3793914</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3628386986.483283</v>
+        <v>2251883941.507257</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1562636816452123</v>
+        <v>0.1505418371561429</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02792034133260276</v>
+        <v>0.02492412160649325</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>37</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1814193585.693071</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3268099490.852554</v>
+        <v>2577311700.815642</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1045038236260199</v>
+        <v>0.09814915233704037</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04056299787138649</v>
+        <v>0.03359897112608331</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>31</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1634049763.807915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1832818951.275432</v>
+        <v>2033088960.853666</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1304624237097186</v>
+        <v>0.1334239473961747</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03780441387930204</v>
+        <v>0.04892958168068481</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>916409515.2126648</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1466285019.000049</v>
+        <v>1364018681.124458</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1350485965677048</v>
+        <v>0.1526895258916606</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0511995222260968</v>
+        <v>0.04522208985015103</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>733142552.8413668</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2455556293.957631</v>
+        <v>1896360651.307516</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09899963538214568</v>
+        <v>0.09077333234275788</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03202196645149821</v>
+        <v>0.02929974425952178</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1227778127.499448</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3185145598.668612</v>
+        <v>3501224941.331923</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1348414313103884</v>
+        <v>0.1240634944199489</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04345962535954934</v>
+        <v>0.03533960034677344</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>28</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1592572852.565712</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2271901476.81048</v>
+        <v>1937534226.231596</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1106263067368753</v>
+        <v>0.1094106609713746</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04097792434349954</v>
+        <v>0.03400843209952673</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1135950772.126637</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2314014977.117243</v>
+        <v>3036444959.595749</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1196088820241004</v>
+        <v>0.09098123284213123</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04358701549141244</v>
+        <v>0.03626546672752901</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>22</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1157007538.09517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2048415960.331128</v>
+        <v>2031991537.337964</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08549947866678666</v>
+        <v>0.09826580913777201</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04180533435227331</v>
+        <v>0.04512671404429087</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1024207961.90049</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4662269868.618645</v>
+        <v>3753978916.966769</v>
       </c>
       <c r="F97" t="n">
-        <v>0.14890241939646</v>
+        <v>0.1694593552306376</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02791514633022722</v>
+        <v>0.02853407171632522</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>30</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2331135043.877986</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2852084835.809057</v>
+        <v>2556643163.707863</v>
       </c>
       <c r="F98" t="n">
-        <v>0.115827363268975</v>
+        <v>0.1040628508345788</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02124775465184431</v>
+        <v>0.02300806346076355</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>24</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1426042392.496427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2365993952.639473</v>
+        <v>2980229330.260384</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1183102046382049</v>
+        <v>0.09944376290075713</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02651828975472724</v>
+        <v>0.02365026598582692</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>29</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1182996916.255529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2965892756.066269</v>
+        <v>3292847667.572836</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1595941227538487</v>
+        <v>0.1623495699227486</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01885343613843248</v>
+        <v>0.02640507178474238</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>28</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1482946366.075796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2764984989.525297</v>
+        <v>2944146272.531718</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1840991258240205</v>
+        <v>0.1647823545995518</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0478561273325822</v>
+        <v>0.04133005327247154</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>40</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1382492552.676249</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_93.xlsx
+++ b/output/fit_clients/fit_round_93.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2480207941.635708</v>
+        <v>1956252180.25553</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08682202944670528</v>
+        <v>0.0835561900143213</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03533918549435214</v>
+        <v>0.03765975795477221</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1717643487.368113</v>
+        <v>2476770302.974682</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1429243353438097</v>
+        <v>0.1833908042654006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04265069751275178</v>
+        <v>0.03089563485846826</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4841610515.90169</v>
+        <v>3285183561.30121</v>
       </c>
       <c r="F4" t="n">
-        <v>0.10840780616299</v>
+        <v>0.1358066924468257</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02568451118726728</v>
+        <v>0.02953226654034007</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3441506388.590514</v>
+        <v>3070085547.622835</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09168857593773823</v>
+        <v>0.0807154605249667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04429353037518868</v>
+        <v>0.04403158664488142</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2828637147.767153</v>
+        <v>1972834649.258093</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1105243633753816</v>
+        <v>0.1195400879471071</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04309769935961374</v>
+        <v>0.03496570351046011</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2067950390.263663</v>
+        <v>2979264257.07796</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08409688647332796</v>
+        <v>0.06673217616271539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03620837037923662</v>
+        <v>0.03232379904152949</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3126008304.651796</v>
+        <v>2581126587.418422</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1894437956426466</v>
+        <v>0.1567571051525854</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03177400205213714</v>
+        <v>0.03308691531470215</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1801215558.802887</v>
+        <v>2012791637.157367</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1208545947899236</v>
+        <v>0.1922901928729306</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02583293010466871</v>
+        <v>0.03744842087534141</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4270856703.052756</v>
+        <v>5335910806.136105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2108145169335615</v>
+        <v>0.1695699084343205</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03286476804186177</v>
+        <v>0.04193978300778847</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3598756990.465847</v>
+        <v>3651539538.025035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1602342805376495</v>
+        <v>0.1827884976739044</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0319535695587122</v>
+        <v>0.04259398289452867</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3272542950.153812</v>
+        <v>2954419678.312693</v>
       </c>
       <c r="F12" t="n">
-        <v>0.178298540107982</v>
+        <v>0.1266456370940171</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03618723160512619</v>
+        <v>0.05129484575475775</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3291798225.868009</v>
+        <v>3580814464.520154</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07796070317028915</v>
+        <v>0.06723942814199411</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02585121749239199</v>
+        <v>0.0234134521855383</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3620009106.696224</v>
+        <v>3522200918.708026</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1374733463919227</v>
+        <v>0.1282204628165608</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03338635735805745</v>
+        <v>0.04309751650188063</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1754557556.878012</v>
+        <v>1847317293.00009</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07392307070763948</v>
+        <v>0.0798105007004012</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04160700156631449</v>
+        <v>0.03674317826580637</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2390877183.265606</v>
+        <v>2660512802.620014</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1110347901434551</v>
+        <v>0.09611983322198708</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04330471855591755</v>
+        <v>0.032841866171112</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4494137827.724488</v>
+        <v>3307646691.242141</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1284413009465513</v>
+        <v>0.1278706831569534</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03824615642123304</v>
+        <v>0.04063216071245505</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2862654872.215697</v>
+        <v>3799256665.187139</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1415882402326249</v>
+        <v>0.1532555617965388</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02856825774939819</v>
+        <v>0.03035699588539677</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1252835954.765697</v>
+        <v>930502778.0786476</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1313420801869226</v>
+        <v>0.1628716848034712</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02259656954653278</v>
+        <v>0.02726223073029723</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1819660457.239024</v>
+        <v>2049108483.169673</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1565929423522185</v>
+        <v>0.09887417738231499</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02621141735832559</v>
+        <v>0.02014381280896739</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1667314138.602127</v>
+        <v>2125061806.714201</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09087057323503128</v>
+        <v>0.07411182685031231</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03843480331336673</v>
+        <v>0.040846169069721</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3508023872.18542</v>
+        <v>2829988479.40517</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1108604364029617</v>
+        <v>0.08712485596884352</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04477264183624417</v>
+        <v>0.05035930451631249</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1131505466.951538</v>
+        <v>1270652962.657064</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1384834164959512</v>
+        <v>0.1122101514866577</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04703144806269034</v>
+        <v>0.04661912023060038</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2582873110.79195</v>
+        <v>3348357245.476661</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1193300438768673</v>
+        <v>0.117049473324496</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02383590807893484</v>
+        <v>0.03229155382563532</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1251113650.716345</v>
+        <v>1301230263.334271</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08600504360060983</v>
+        <v>0.08939317671817436</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02974004286417714</v>
+        <v>0.03046493789433692</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>878907360.9693333</v>
+        <v>1054021185.286718</v>
       </c>
       <c r="F26" t="n">
-        <v>0.121177191278372</v>
+        <v>0.1110339694342911</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0272501457348386</v>
+        <v>0.03777159878498167</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3316564635.432888</v>
+        <v>3837152205.060578</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1159056160662624</v>
+        <v>0.1280358002407522</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02103134063385357</v>
+        <v>0.02200338681605046</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3104789650.255515</v>
+        <v>3313334316.70285</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1219364100969708</v>
+        <v>0.1301233946635626</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0422005247027473</v>
+        <v>0.03297508434264389</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4793957324.725755</v>
+        <v>5103044252.024794</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1415358171532026</v>
+        <v>0.1426655000701665</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03045443338939416</v>
+        <v>0.0356258227085925</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2026579026.557632</v>
+        <v>1874733202.536408</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1105375142554723</v>
+        <v>0.1317134726795302</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02774806896711575</v>
+        <v>0.03742992999278007</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1315641030.054272</v>
+        <v>1097202980.793139</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07647350030085949</v>
+        <v>0.07199494204676894</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04667001867916584</v>
+        <v>0.04234550035738982</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1453422907.966477</v>
+        <v>1553363948.344651</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09289603836966841</v>
+        <v>0.1013576914216311</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03386979351794369</v>
+        <v>0.0310631678701967</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1969505961.192535</v>
+        <v>2597253620.547987</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1378731090117546</v>
+        <v>0.1418365586384298</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03905207006380859</v>
+        <v>0.05505856306529951</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1269975870.208304</v>
+        <v>1484303310.299064</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08886768293883124</v>
+        <v>0.09445551655448699</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01903279895962583</v>
+        <v>0.01890429488265509</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>919470097.2605093</v>
+        <v>1233295876.558438</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09867390339765915</v>
+        <v>0.1033252034104473</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04372750277999848</v>
+        <v>0.03804375591846896</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2053645337.231137</v>
+        <v>2907706119.656403</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1381633602806884</v>
+        <v>0.1713611340077036</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01900563755563829</v>
+        <v>0.02724625487038014</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2483779235.165207</v>
+        <v>2627050486.619249</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08148758413461059</v>
+        <v>0.1105426010403371</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03033387137275901</v>
+        <v>0.03389001656118783</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1399156192.819644</v>
+        <v>1341921401.23409</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09458352505688429</v>
+        <v>0.07594763784033508</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03822078796866079</v>
+        <v>0.02479778878138561</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1425702591.421466</v>
+        <v>1570486214.737242</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1880588445764669</v>
+        <v>0.1325300770839594</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03107703230371522</v>
+        <v>0.02466023216641402</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1710652138.926817</v>
+        <v>1716273018.349541</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1347795537311534</v>
+        <v>0.1444507863429183</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0594152938493286</v>
+        <v>0.05959943993507681</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2114936437.35868</v>
+        <v>1897530940.231147</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1422566132438648</v>
+        <v>0.1069511557434207</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04324066892988129</v>
+        <v>0.02981432199237382</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4104901894.577888</v>
+        <v>2848967079.583165</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08644986817773954</v>
+        <v>0.08845211745711883</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03580359947277128</v>
+        <v>0.04131473484114902</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2358010040.543531</v>
+        <v>3036349791.577196</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1899234113718961</v>
+        <v>0.1949554864192609</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0191241562994799</v>
+        <v>0.01594645742771857</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2244421766.189969</v>
+        <v>2172573909.859531</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06676872922676615</v>
+        <v>0.07095486809566352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03421410941128484</v>
+        <v>0.03059023460110145</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1865147424.131666</v>
+        <v>1904807481.449981</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1263127784988184</v>
+        <v>0.1434897505019692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03515159099463819</v>
+        <v>0.05520997099483461</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3973788899.34299</v>
+        <v>3471807814.669316</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1607602631523524</v>
+        <v>0.1499321739558498</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05606720554689933</v>
+        <v>0.05089199377642833</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4428786835.34389</v>
+        <v>4450175303.22085</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1498424758218104</v>
+        <v>0.1256469691520015</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04834671268905428</v>
+        <v>0.04046057377854927</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4148883026.155961</v>
+        <v>4318465897.751331</v>
       </c>
       <c r="F48" t="n">
-        <v>0.101785917650907</v>
+        <v>0.110231338862837</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0275967362915729</v>
+        <v>0.03519730210145891</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1535422504.792908</v>
+        <v>1964214807.000494</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1480609833298326</v>
+        <v>0.1336661437844691</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03723159871950375</v>
+        <v>0.0294415498281939</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3035702273.436749</v>
+        <v>2657806250.146625</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1673274986931936</v>
+        <v>0.1479894243406101</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0502755367631569</v>
+        <v>0.04444027663260377</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1274281370.421756</v>
+        <v>1463851075.407163</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1271424428714996</v>
+        <v>0.1695849843122353</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03642788819311626</v>
+        <v>0.04564485274795729</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4420602551.51258</v>
+        <v>3512571456.735872</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1186124155379386</v>
+        <v>0.132837894622452</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05915645784428191</v>
+        <v>0.04999063782319707</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3214927053.393784</v>
+        <v>3696938666.307572</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1394652037070414</v>
+        <v>0.1670002362785946</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03200740591398576</v>
+        <v>0.03018992747742966</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3901711147.035579</v>
+        <v>4140998141.940582</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1508040521310135</v>
+        <v>0.1329546215624031</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04309165457378361</v>
+        <v>0.03433135393363201</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3096191079.422709</v>
+        <v>4681671918.305146</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1467373671012313</v>
+        <v>0.1477950758054692</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03119313369698266</v>
+        <v>0.02421003912199959</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1277042606.168557</v>
+        <v>1724617751.559346</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1155176014503327</v>
+        <v>0.1515426292811163</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05410407153018325</v>
+        <v>0.04623807355677726</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2877109011.96302</v>
+        <v>4585876269.54508</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1607161974614883</v>
+        <v>0.1809775515289334</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02003752403631111</v>
+        <v>0.01868233793228233</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1847507621.536048</v>
+        <v>1650673206.724036</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1846432991216989</v>
+        <v>0.1829623977757851</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02595634822443217</v>
+        <v>0.03140941715420578</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3413074290.428753</v>
+        <v>3883607732.569149</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09408281986431688</v>
+        <v>0.1168328053537643</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03094693112712251</v>
+        <v>0.03611218123841765</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3394542576.714659</v>
+        <v>2777319210.362307</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1728250278614116</v>
+        <v>0.1969357490588667</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02495987108906991</v>
+        <v>0.03340451619628226</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3079947922.634259</v>
+        <v>2397916902.688134</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1757120285810011</v>
+        <v>0.1453881244325821</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03030170902836018</v>
+        <v>0.03240236654164241</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2039586223.933979</v>
+        <v>1786159726.254662</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1567444286927959</v>
+        <v>0.1879198130258943</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03108767335178516</v>
+        <v>0.0406030910693141</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4187121027.050332</v>
+        <v>3395235091.089654</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07376986215761724</v>
+        <v>0.08589922981467946</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03218423298112389</v>
+        <v>0.0332693977129797</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4947120391.74988</v>
+        <v>4496117936.052045</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1445556207230095</v>
+        <v>0.1613067325233854</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02848947654293637</v>
+        <v>0.03147133036727478</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3734845521.958188</v>
+        <v>4394268846.299185</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1200022762235729</v>
+        <v>0.1102514776663384</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02838045074743246</v>
+        <v>0.0311020446383489</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3608446150.257668</v>
+        <v>3895520988.934231</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1455365346448715</v>
+        <v>0.1611268153420729</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0479167577951602</v>
+        <v>0.04875568755035228</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3214536421.045988</v>
+        <v>3216775203.656691</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09239599959790615</v>
+        <v>0.08049267438130768</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05061211975926412</v>
+        <v>0.04305678541860757</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5138631092.985925</v>
+        <v>5793629447.350081</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1444547833817096</v>
+        <v>0.1188977690423942</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04638079736967535</v>
+        <v>0.03530794632315152</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1703573758.562237</v>
+        <v>2007872495.064298</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1483536571778675</v>
+        <v>0.1294544027426824</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04163558522685062</v>
+        <v>0.05374891042067191</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2836830140.983472</v>
+        <v>3212746668.915085</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0642518476833749</v>
+        <v>0.0763546309080148</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03136834433537136</v>
+        <v>0.04925716189029348</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4609271125.487455</v>
+        <v>5335464229.440004</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1344578179735448</v>
+        <v>0.1189838478016143</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0313717388741689</v>
+        <v>0.02336646712118911</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2026976176.597016</v>
+        <v>1746066363.189719</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08021188590596572</v>
+        <v>0.08201202264427886</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03883363108710143</v>
+        <v>0.03821790436187442</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2973423436.733631</v>
+        <v>3430564731.114734</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07664488768502238</v>
+        <v>0.08665912855776566</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0319657775950355</v>
+        <v>0.0495485778903731</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3855343326.940174</v>
+        <v>2725563909.198401</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1742033268755502</v>
+        <v>0.1140908712676999</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02687152029009996</v>
+        <v>0.02488715360272585</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2063970268.000244</v>
+        <v>1618892206.677382</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1189908772301763</v>
+        <v>0.1089450619763583</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03800660144458102</v>
+        <v>0.03477591929388309</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3757042436.237823</v>
+        <v>5302127323.644271</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1027622625849968</v>
+        <v>0.1071721215612345</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02725299836848553</v>
+        <v>0.02785929970691306</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1796389999.483477</v>
+        <v>1566287764.303299</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1282884423144885</v>
+        <v>0.1210081398707234</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02573069093050506</v>
+        <v>0.02870141464500808</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3977894236.09055</v>
+        <v>4437059816.745071</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1370105248393708</v>
+        <v>0.08574693296154928</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03781638948726812</v>
+        <v>0.04856386942445861</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1470377172.799934</v>
+        <v>1429448039.840642</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1420727694165337</v>
+        <v>0.1715472444517969</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02657886503427615</v>
+        <v>0.03154626103959458</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4170948477.999815</v>
+        <v>4791853922.04782</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0853255529513896</v>
+        <v>0.1065816824407212</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02679397804648902</v>
+        <v>0.03085065780020028</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4343782178.417478</v>
+        <v>5025832571.27501</v>
       </c>
       <c r="F81" t="n">
-        <v>0.126517642486859</v>
+        <v>0.1053581514334249</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02179701167892332</v>
+        <v>0.02811541632512034</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5247492384.534289</v>
+        <v>4323028569.032605</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1957979588819414</v>
+        <v>0.183316709703231</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02479135440068415</v>
+        <v>0.02771965750157694</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2025410282.264656</v>
+        <v>2251441198.514752</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1295645814712109</v>
+        <v>0.1204027615347942</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04005081123992079</v>
+        <v>0.03107801920572545</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2224222669.736608</v>
+        <v>2278488197.844058</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08898976649004402</v>
+        <v>0.1130375419617237</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04030446843484514</v>
+        <v>0.04862698347168804</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2893980011.21873</v>
+        <v>2669498646.565135</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1782983193396821</v>
+        <v>0.1844353499806355</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03533871754220531</v>
+        <v>0.04124424274233721</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2289489916.94537</v>
+        <v>1860957165.179114</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1290939389900242</v>
+        <v>0.1239279433298462</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02610997405594483</v>
+        <v>0.01952524445142821</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1195940147.962337</v>
+        <v>1489965355.87678</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1366664819099914</v>
+        <v>0.1876019605152471</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03539453710989778</v>
+        <v>0.02670862514382293</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2251883941.507257</v>
+        <v>3012502478.66749</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1505418371561429</v>
+        <v>0.1089488730471172</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02492412160649325</v>
+        <v>0.0380143909264588</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2577311700.815642</v>
+        <v>3462478205.94378</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09814915233704037</v>
+        <v>0.1070312894457586</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03359897112608331</v>
+        <v>0.03957000380210977</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2033088960.853666</v>
+        <v>1546281391.405699</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1334239473961747</v>
+        <v>0.1010155400618774</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04892958168068481</v>
+        <v>0.04366380259633946</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1364018681.124458</v>
+        <v>1794174308.540702</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1526895258916606</v>
+        <v>0.1216522330369312</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04522208985015103</v>
+        <v>0.0456340826663545</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1896360651.307516</v>
+        <v>2212022100.909964</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09077333234275788</v>
+        <v>0.1055157885168407</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02929974425952178</v>
+        <v>0.04015781626762842</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3501224941.331923</v>
+        <v>4345092093.464017</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1240634944199489</v>
+        <v>0.106046396039472</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03533960034677344</v>
+        <v>0.04275639690288115</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1937534226.231596</v>
+        <v>1669069504.549478</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1094106609713746</v>
+        <v>0.1219295838506887</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03400843209952673</v>
+        <v>0.03779330185136735</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3036444959.595749</v>
+        <v>2096839757.516373</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09098123284213123</v>
+        <v>0.1332489278617722</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03626546672752901</v>
+        <v>0.03615627457518333</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2031991537.337964</v>
+        <v>2161582233.303568</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09826580913777201</v>
+        <v>0.1089078365461405</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04512671404429087</v>
+        <v>0.04468862729529638</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3753978916.966769</v>
+        <v>4380527496.004514</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1694593552306376</v>
+        <v>0.1462126328467326</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02853407171632522</v>
+        <v>0.01895497857311344</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2556643163.707863</v>
+        <v>3740669190.580894</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1040628508345788</v>
+        <v>0.1091803483561198</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02300806346076355</v>
+        <v>0.03043386608288242</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2980229330.260384</v>
+        <v>2819662916.298346</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09944376290075713</v>
+        <v>0.111109636368432</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02365026598582692</v>
+        <v>0.02644043028876711</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3292847667.572836</v>
+        <v>3184433716.342607</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1623495699227486</v>
+        <v>0.1780548605064307</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02640507178474238</v>
+        <v>0.01749667091293949</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2944146272.531718</v>
+        <v>2238741197.280785</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1647823545995518</v>
+        <v>0.2004458306896265</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04133005327247154</v>
+        <v>0.05406175857358805</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_93.xlsx
+++ b/output/fit_clients/fit_round_93.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1956252180.25553</v>
+        <v>2388205666.522133</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0835561900143213</v>
+        <v>0.09428630190623569</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03765975795477221</v>
+        <v>0.04232089102979811</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2476770302.974682</v>
+        <v>1878835075.323889</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1833908042654006</v>
+        <v>0.1511798462956498</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03089563485846826</v>
+        <v>0.03505050842514944</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3285183561.30121</v>
+        <v>3248635718.976933</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1358066924468257</v>
+        <v>0.1064968101590558</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02953226654034007</v>
+        <v>0.02407537392697863</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>59</v>
+      </c>
+      <c r="J4" t="n">
+        <v>91</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3070085547.622835</v>
+        <v>3337251508.512465</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0807154605249667</v>
+        <v>0.1008350158412585</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04403158664488142</v>
+        <v>0.04293660249009288</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>90</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1972834649.258093</v>
+        <v>1895991126.490814</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1195400879471071</v>
+        <v>0.09000829521279784</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03496570351046011</v>
+        <v>0.04875379838306001</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2979264257.07796</v>
+        <v>2897917491.805698</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06673217616271539</v>
+        <v>0.09981742716000838</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03232379904152949</v>
+        <v>0.03540422690606539</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2581126587.418422</v>
+        <v>2787524788.95817</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1567571051525854</v>
+        <v>0.1787262269809587</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03308691531470215</v>
+        <v>0.03255365620493273</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>92</v>
+      </c>
+      <c r="K8" t="n">
+        <v>71.33501957247887</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2012791637.157367</v>
+        <v>1517527417.097742</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1922901928729306</v>
+        <v>0.1822527356260445</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03744842087534141</v>
+        <v>0.03507651571666795</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5335910806.136105</v>
+        <v>4875330327.341475</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1695699084343205</v>
+        <v>0.1731959915127514</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04193978300778847</v>
+        <v>0.03432081467042015</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>87</v>
+      </c>
+      <c r="J10" t="n">
+        <v>93</v>
+      </c>
+      <c r="K10" t="n">
+        <v>188.0957666878566</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3651539538.025035</v>
+        <v>3526127720.385462</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1827884976739044</v>
+        <v>0.1900236731037756</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04259398289452867</v>
+        <v>0.04726695898855436</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38</v>
+      </c>
+      <c r="J11" t="n">
+        <v>93</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2954419678.312693</v>
+        <v>2463423750.733026</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1266456370940171</v>
+        <v>0.1695946875293001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05129484575475775</v>
+        <v>0.03347802440925413</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3580814464.520154</v>
+        <v>4892301839.873291</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06723942814199411</v>
+        <v>0.09705132626495788</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0234134521855383</v>
+        <v>0.02115906646593272</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>47</v>
+      </c>
+      <c r="J13" t="n">
+        <v>92</v>
+      </c>
+      <c r="K13" t="n">
+        <v>162.1711064045561</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3522200918.708026</v>
+        <v>2522632173.960652</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1282204628165608</v>
+        <v>0.1741472001833853</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04309751650188063</v>
+        <v>0.03075172205724487</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18</v>
+      </c>
+      <c r="J14" t="n">
+        <v>92</v>
+      </c>
+      <c r="K14" t="n">
+        <v>55.89870578244496</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1847317293.00009</v>
+        <v>1623461775.719676</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0798105007004012</v>
+        <v>0.07574498699683707</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03674317826580637</v>
+        <v>0.04439992455601835</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2660512802.620014</v>
+        <v>1986200684.004448</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09611983322198708</v>
+        <v>0.07150900015656085</v>
       </c>
       <c r="G16" t="n">
-        <v>0.032841866171112</v>
+        <v>0.04898482989238161</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3307646691.242141</v>
+        <v>4632294881.165891</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1278706831569534</v>
+        <v>0.1286239560817163</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04063216071245505</v>
+        <v>0.05289530644362722</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>45</v>
+      </c>
+      <c r="J17" t="n">
+        <v>92</v>
+      </c>
+      <c r="K17" t="n">
+        <v>149.6022924664879</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3799256665.187139</v>
+        <v>3443046634.11164</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1532555617965388</v>
+        <v>0.1198438924548094</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03035699588539677</v>
+        <v>0.0299723821695413</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>91</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>930502778.0786476</v>
+        <v>1130548342.195559</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1628716848034712</v>
+        <v>0.1669233496041621</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02726223073029723</v>
+        <v>0.02362210367338353</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2049108483.169673</v>
+        <v>2802951564.700304</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09887417738231499</v>
+        <v>0.1474534893646648</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02014381280896739</v>
+        <v>0.0217125439729751</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2125061806.714201</v>
+        <v>2415705336.634289</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07411182685031231</v>
+        <v>0.08595287438000243</v>
       </c>
       <c r="G21" t="n">
-        <v>0.040846169069721</v>
+        <v>0.0419458065550113</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2829988479.40517</v>
+        <v>3490887600.02795</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08712485596884352</v>
+        <v>0.1150801420022248</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05035930451631249</v>
+        <v>0.05213643957075662</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>93</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1270652962.657064</v>
+        <v>1248392251.572901</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1122101514866577</v>
+        <v>0.1404112295835154</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04661912023060038</v>
+        <v>0.05177253328788042</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3348357245.476661</v>
+        <v>2583483249.076159</v>
       </c>
       <c r="F24" t="n">
-        <v>0.117049473324496</v>
+        <v>0.09460272555802934</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03229155382563532</v>
+        <v>0.02585251580663822</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>90</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1301230263.334271</v>
+        <v>1110752031.152434</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08939317671817436</v>
+        <v>0.1227187584405051</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03046493789433692</v>
+        <v>0.02202278938921684</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1054021185.286718</v>
+        <v>970834734.3201497</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1110339694342911</v>
+        <v>0.08558706090512909</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03777159878498167</v>
+        <v>0.02558448374229138</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3837152205.060578</v>
+        <v>4098778600.162293</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1280358002407522</v>
+        <v>0.1017506008260127</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02200338681605046</v>
+        <v>0.01873443648404908</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>36</v>
+      </c>
+      <c r="J27" t="n">
+        <v>93</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3313334316.70285</v>
+        <v>2755995788.318892</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1301233946635626</v>
+        <v>0.1279621022372296</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03297508434264389</v>
+        <v>0.03551828852208964</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5103044252.024794</v>
+        <v>4287616470.38287</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1426655000701665</v>
+        <v>0.1218112589623551</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0356258227085925</v>
+        <v>0.03176581368763875</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>87</v>
+      </c>
+      <c r="J29" t="n">
+        <v>93</v>
+      </c>
+      <c r="K29" t="n">
+        <v>197.9283550780318</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1874733202.536408</v>
+        <v>1942519067.901078</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1317134726795302</v>
+        <v>0.1248621531273917</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03742992999278007</v>
+        <v>0.03693077892261892</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1097202980.793139</v>
+        <v>1415302634.822831</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07199494204676894</v>
+        <v>0.07720031314284392</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04234550035738982</v>
+        <v>0.04591769487226004</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1553363948.344651</v>
+        <v>1842737820.475599</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1013576914216311</v>
+        <v>0.1077760744322726</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0310631678701967</v>
+        <v>0.03493607352647372</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2597253620.547987</v>
+        <v>2839603161.81418</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1418365586384298</v>
+        <v>0.14161577455893</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05505856306529951</v>
+        <v>0.04015514548477589</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1484303310.299064</v>
+        <v>1187623840.433528</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09445551655448699</v>
+        <v>0.102769248585385</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01890429488265509</v>
+        <v>0.02478275016118091</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1233295876.558438</v>
+        <v>1109240155.383694</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1033252034104473</v>
+        <v>0.07718202581119789</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03804375591846896</v>
+        <v>0.04358667302130984</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2907706119.656403</v>
+        <v>2633596639.196851</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1713611340077036</v>
+        <v>0.1436603134126143</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02724625487038014</v>
+        <v>0.0185655902220443</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2627050486.619249</v>
+        <v>2664628007.317162</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1105426010403371</v>
+        <v>0.07544774404024165</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03389001656118783</v>
+        <v>0.03401980845331003</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1341921401.23409</v>
+        <v>2073689084.739377</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07594763784033508</v>
+        <v>0.0905979767937912</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02479778878138561</v>
+        <v>0.03151136374413471</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1570486214.737242</v>
+        <v>1798455599.700203</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1325300770839594</v>
+        <v>0.1690857150650306</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02466023216641402</v>
+        <v>0.02692920577751938</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1716273018.349541</v>
+        <v>1683653772.313925</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1444507863429183</v>
+        <v>0.1611604795410652</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05959943993507681</v>
+        <v>0.05005532846999185</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1897530940.231147</v>
+        <v>2480214081.335711</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1069511557434207</v>
+        <v>0.1638617136819508</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02981432199237382</v>
+        <v>0.03722310102301261</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2848967079.583165</v>
+        <v>3633288693.372841</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08845211745711883</v>
+        <v>0.1237931926546434</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04131473484114902</v>
+        <v>0.03231568510678758</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>35</v>
+      </c>
+      <c r="J42" t="n">
+        <v>93</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3036349791.577196</v>
+        <v>2251754809.72346</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1949554864192609</v>
+        <v>0.1484675849479593</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01594645742771857</v>
+        <v>0.01932886178233156</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2172573909.859531</v>
+        <v>1942026978.205216</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07095486809566352</v>
+        <v>0.09983262511739541</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03059023460110145</v>
+        <v>0.02867279476795219</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1904807481.449981</v>
+        <v>1913794289.990603</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1434897505019692</v>
+        <v>0.1617380158784014</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05520997099483461</v>
+        <v>0.04099957858407915</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3471807814.669316</v>
+        <v>5176007386.248427</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1499321739558498</v>
+        <v>0.1583134963270171</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05089199377642833</v>
+        <v>0.06071854519843562</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>53</v>
+      </c>
+      <c r="J46" t="n">
+        <v>92</v>
+      </c>
+      <c r="K46" t="n">
+        <v>168.1032306712796</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4450175303.22085</v>
+        <v>3320817373.024772</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1256469691520015</v>
+        <v>0.1289183944696737</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04046057377854927</v>
+        <v>0.04724350546622957</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>41</v>
+      </c>
+      <c r="J47" t="n">
+        <v>89</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4318465897.751331</v>
+        <v>3420596467.383722</v>
       </c>
       <c r="F48" t="n">
-        <v>0.110231338862837</v>
+        <v>0.1004744305591467</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03519730210145891</v>
+        <v>0.03718421654452383</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>35</v>
+      </c>
+      <c r="J48" t="n">
+        <v>90</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1964214807.000494</v>
+        <v>1721794853.178006</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1336661437844691</v>
+        <v>0.1477315210701307</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0294415498281939</v>
+        <v>0.03140478275287994</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2657806250.146625</v>
+        <v>3630213973.658893</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1479894243406101</v>
+        <v>0.1624126285274863</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04444027663260377</v>
+        <v>0.04748347151947569</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>33</v>
+      </c>
+      <c r="J50" t="n">
+        <v>92</v>
+      </c>
+      <c r="K50" t="n">
+        <v>120.3576020980939</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1463851075.407163</v>
+        <v>1066566101.813373</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1695849843122353</v>
+        <v>0.1316206279874685</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04564485274795729</v>
+        <v>0.04808415450486313</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3512571456.735872</v>
+        <v>4744111069.420519</v>
       </c>
       <c r="F52" t="n">
-        <v>0.132837894622452</v>
+        <v>0.09593599889481177</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04999063782319707</v>
+        <v>0.04447399459904765</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>71</v>
+      </c>
+      <c r="J52" t="n">
+        <v>93</v>
+      </c>
+      <c r="K52" t="n">
+        <v>178.3673484272349</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3696938666.307572</v>
+        <v>2304465540.592203</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1670002362785946</v>
+        <v>0.1953310904581709</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03018992747742966</v>
+        <v>0.02667266075413174</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4140998141.940582</v>
+        <v>3113768813.707003</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1329546215624031</v>
+        <v>0.1045087600700489</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03433135393363201</v>
+        <v>0.03767228194800794</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>42</v>
+      </c>
+      <c r="J54" t="n">
+        <v>92</v>
+      </c>
+      <c r="K54" t="n">
+        <v>87.99916013926908</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4681671918.305146</v>
+        <v>3886887170.888189</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1477950758054692</v>
+        <v>0.1491972223449851</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02421003912199959</v>
+        <v>0.02688963946214359</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>42</v>
+      </c>
+      <c r="J55" t="n">
+        <v>93</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1724617751.559346</v>
+        <v>1630096281.756132</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1515426292811163</v>
+        <v>0.1473945536238512</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04623807355677726</v>
+        <v>0.05818205733860562</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4585876269.54508</v>
+        <v>3527626906.066017</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1809775515289334</v>
+        <v>0.1285701586818816</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01868233793228233</v>
+        <v>0.02434421781179877</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>35</v>
+      </c>
+      <c r="J57" t="n">
+        <v>92</v>
+      </c>
+      <c r="K57" t="n">
+        <v>108.3014550810503</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1650673206.724036</v>
+        <v>1465039122.245021</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1829623977757851</v>
+        <v>0.200970694388314</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03140941715420578</v>
+        <v>0.03547068152000035</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3883607732.569149</v>
+        <v>4428915958.316291</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1168328053537643</v>
+        <v>0.1173791454501543</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03611218123841765</v>
+        <v>0.03899407538373066</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>45</v>
+      </c>
+      <c r="J59" t="n">
+        <v>93</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2777319210.362307</v>
+        <v>2279288600.96918</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1969357490588667</v>
+        <v>0.1296387574547018</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03340451619628226</v>
+        <v>0.02185948061179013</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>13</v>
+      </c>
+      <c r="J60" t="n">
+        <v>92</v>
+      </c>
+      <c r="K60" t="n">
+        <v>46.35958142593745</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2397916902.688134</v>
+        <v>3145421250.521715</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1453881244325821</v>
+        <v>0.1252022808929701</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03240236654164241</v>
+        <v>0.02136139775571858</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1786159726.254662</v>
+        <v>1629815336.749694</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1879198130258943</v>
+        <v>0.1608309846378745</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0406030910693141</v>
+        <v>0.04356234756366447</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3395235091.089654</v>
+        <v>4937330261.464915</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08589922981467946</v>
+        <v>0.06531987085414134</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0332693977129797</v>
+        <v>0.04137083543825536</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>46</v>
+      </c>
+      <c r="J63" t="n">
+        <v>92</v>
+      </c>
+      <c r="K63" t="n">
+        <v>152.4554961206453</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4496117936.052045</v>
+        <v>4904723366.169476</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1613067325233854</v>
+        <v>0.1639429684908346</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03147133036727478</v>
+        <v>0.02234803378136747</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>46</v>
+      </c>
+      <c r="J64" t="n">
+        <v>92</v>
+      </c>
+      <c r="K64" t="n">
+        <v>161.4592942315129</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2734,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4394268846.299185</v>
+        <v>4473265915.190784</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1102514776663384</v>
+        <v>0.1426867132398183</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0311020446383489</v>
+        <v>0.02503454902401845</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>74</v>
+      </c>
+      <c r="J65" t="n">
+        <v>93</v>
+      </c>
+      <c r="K65" t="n">
+        <v>173.1551079935464</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2771,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3895520988.934231</v>
+        <v>5638997485.146096</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1611268153420729</v>
+        <v>0.132150525838352</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04875568755035228</v>
+        <v>0.0494628293462655</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>46</v>
+      </c>
+      <c r="J66" t="n">
+        <v>92</v>
+      </c>
+      <c r="K66" t="n">
+        <v>160.9612992272329</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3216775203.656691</v>
+        <v>2437976674.942343</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08049267438130768</v>
+        <v>0.07916884357009235</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04305678541860757</v>
+        <v>0.03732413130005408</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5793629447.350081</v>
+        <v>4220875451.857698</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1188977690423942</v>
+        <v>0.1416391946330262</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03530794632315152</v>
+        <v>0.04995969139332511</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>46</v>
+      </c>
+      <c r="J68" t="n">
+        <v>93</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2007872495.064298</v>
+        <v>1988232335.130151</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1294544027426824</v>
+        <v>0.1170934456707009</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05374891042067191</v>
+        <v>0.05394451412847621</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2913,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3212746668.915085</v>
+        <v>3717449015.507861</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0763546309080148</v>
+        <v>0.09934654040315852</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04925716189029348</v>
+        <v>0.03709125269779035</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11</v>
+      </c>
+      <c r="J70" t="n">
+        <v>92</v>
+      </c>
+      <c r="K70" t="n">
+        <v>118.5319370218121</v>
       </c>
     </row>
     <row r="71">
@@ -2418,17 +2950,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5335464229.440004</v>
+        <v>3775423216.685008</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1189838478016143</v>
+        <v>0.1759604991272823</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02336646712118911</v>
+        <v>0.031091899069824</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>76</v>
+      </c>
+      <c r="J71" t="n">
+        <v>93</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1746066363.189719</v>
+        <v>1460818875.448395</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08201202264427886</v>
+        <v>0.09777391642153294</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03821790436187442</v>
+        <v>0.03516978998896965</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3430564731.114734</v>
+        <v>2911700851.445719</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08665912855776566</v>
+        <v>0.1104660243947797</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0495485778903731</v>
+        <v>0.04017968144462183</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2725563909.198401</v>
+        <v>3824416968.358067</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1140908712676999</v>
+        <v>0.1511038741624535</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02488715360272585</v>
+        <v>0.0324832999685972</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>29</v>
+      </c>
+      <c r="J74" t="n">
+        <v>93</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1618892206.677382</v>
+        <v>2472219076.233029</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1089450619763583</v>
+        <v>0.120684720029831</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03477591929388309</v>
+        <v>0.03156331409475868</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5302127323.644271</v>
+        <v>3550416001.980314</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1071721215612345</v>
+        <v>0.08927441981877521</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02785929970691306</v>
+        <v>0.03256798110548718</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>43</v>
+      </c>
+      <c r="J76" t="n">
+        <v>92</v>
+      </c>
+      <c r="K76" t="n">
+        <v>94.67082506964114</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1566287764.303299</v>
+        <v>2221237322.943516</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1210081398707234</v>
+        <v>0.1827767594128301</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02870141464500808</v>
+        <v>0.02925452059604598</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3191,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4437059816.745071</v>
+        <v>2915159248.053276</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08574693296154928</v>
+        <v>0.09515463368211008</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04856386942445861</v>
+        <v>0.03506230598762735</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>47</v>
+      </c>
+      <c r="J78" t="n">
+        <v>92</v>
+      </c>
+      <c r="K78" t="n">
+        <v>81.92835248609443</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3234,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1429448039.840642</v>
+        <v>1314173894.095771</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1715472444517969</v>
+        <v>0.1133600507139171</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03154626103959458</v>
+        <v>0.03216279999594004</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4791853922.04782</v>
+        <v>4116656397.632345</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1065816824407212</v>
+        <v>0.09650665672746266</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03085065780020028</v>
+        <v>0.02630483759769795</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>44</v>
+      </c>
+      <c r="J80" t="n">
+        <v>93</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5025832571.27501</v>
+        <v>5073345236.232612</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1053581514334249</v>
+        <v>0.1099464725916381</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02811541632512034</v>
+        <v>0.0304900541586639</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>42</v>
+      </c>
+      <c r="J81" t="n">
+        <v>93</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3339,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4323028569.032605</v>
+        <v>5584386094.674148</v>
       </c>
       <c r="F82" t="n">
-        <v>0.183316709703231</v>
+        <v>0.1863020748473427</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02771965750157694</v>
+        <v>0.0239018038315041</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>60</v>
+      </c>
+      <c r="J82" t="n">
+        <v>93</v>
+      </c>
+      <c r="K82" t="n">
+        <v>176.9932145194862</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2251441198.514752</v>
+        <v>1498828709.384656</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1204027615347942</v>
+        <v>0.1374344308397961</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03107801920572545</v>
+        <v>0.03173142810675843</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2278488197.844058</v>
+        <v>2063066602.693012</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1130375419617237</v>
+        <v>0.1188581942178356</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04862698347168804</v>
+        <v>0.04109154076035737</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3446,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2669498646.565135</v>
+        <v>2795523658.480747</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1844353499806355</v>
+        <v>0.1668436072796421</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04124424274233721</v>
+        <v>0.03937193537133415</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="n">
+        <v>88</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3481,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1860957165.179114</v>
+        <v>2330868639.798229</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1239279433298462</v>
+        <v>0.1481733409682815</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01952524445142821</v>
+        <v>0.0258393897020555</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1489965355.87678</v>
+        <v>914110390.7227007</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1876019605152471</v>
+        <v>0.1584750616848365</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02670862514382293</v>
+        <v>0.03156680368214336</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3012502478.66749</v>
+        <v>2929915295.492715</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1089488730471172</v>
+        <v>0.1684864567496633</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0380143909264588</v>
+        <v>0.03413159987339939</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
+        <v>86</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3586,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3462478205.94378</v>
+        <v>2268013448.834967</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1070312894457586</v>
+        <v>0.1321475253130362</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03957000380210977</v>
+        <v>0.02938772291995154</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1546281391.405699</v>
+        <v>1625029143.623564</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1010155400618774</v>
+        <v>0.1346641890747528</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04366380259633946</v>
+        <v>0.0461890974141688</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1794174308.540702</v>
+        <v>1721306672.002876</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1216522330369312</v>
+        <v>0.1663039507446948</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0456340826663545</v>
+        <v>0.05955976399702113</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2212022100.909964</v>
+        <v>1934893614.56961</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1055157885168407</v>
+        <v>0.09199028940732036</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04015781626762842</v>
+        <v>0.03865865118826632</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3726,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4345092093.464017</v>
+        <v>3838066924.685457</v>
       </c>
       <c r="F93" t="n">
-        <v>0.106046396039472</v>
+        <v>0.1221310647889778</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04275639690288115</v>
+        <v>0.04536611487089443</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>42</v>
+      </c>
+      <c r="J93" t="n">
+        <v>93</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1669069504.549478</v>
+        <v>1577385739.828798</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1219295838506887</v>
+        <v>0.1679026797936082</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03779330185136735</v>
+        <v>0.04120212784813884</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2096839757.516373</v>
+        <v>2858375606.264221</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1332489278617722</v>
+        <v>0.1363216532397184</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03615627457518333</v>
+        <v>0.04813446346235182</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2161582233.303568</v>
+        <v>2076239269.193592</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1089078365461405</v>
+        <v>0.137129833509883</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04468862729529638</v>
+        <v>0.03223679954646096</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4380527496.004514</v>
+        <v>4043837172.476152</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1462126328467326</v>
+        <v>0.1492788685786985</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01895497857311344</v>
+        <v>0.02339266549254618</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>44</v>
+      </c>
+      <c r="J97" t="n">
+        <v>93</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3740669190.580894</v>
+        <v>3772588816.362426</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1091803483561198</v>
+        <v>0.07891156588147938</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03043386608288242</v>
+        <v>0.03210649315987813</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>20</v>
+      </c>
+      <c r="J98" t="n">
+        <v>93</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2819662916.298346</v>
+        <v>3414284715.937783</v>
       </c>
       <c r="F99" t="n">
-        <v>0.111109636368432</v>
+        <v>0.1430408378670574</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02644043028876711</v>
+        <v>0.03285739299873277</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3184433716.342607</v>
+        <v>3480644990.844953</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1780548605064307</v>
+        <v>0.1278690036277745</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01749667091293949</v>
+        <v>0.02502824910271314</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>37</v>
+      </c>
+      <c r="J100" t="n">
+        <v>93</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2238741197.280785</v>
+        <v>2407829217.352428</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2004458306896265</v>
+        <v>0.1354239795610069</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05406175857358805</v>
+        <v>0.03576063010346307</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
